--- a/Question_Sets/Software skills/Microsoft Word.xlsx
+++ b/Question_Sets/Software skills/Microsoft Word.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a contract manager at a construction firm. You have drafted a contract in Word for a new client, detailing the scope of work and payment terms. You need to save and send the contract to the client in a format that ensures they cannot alter its content before signing.In which format should you save the client’s copy of the contract?', 'ques_type': 2, 'options': ['Word Document (.docx)', 'Plain Text (.txt)', 'OpenDocument Text (.odt)', 'PDF (.pdf)'], 'score': 'PDF (.pdf)'}, {'title': 'As a technical writer for a software company, you are creating a Word document detailing various features of the software. You have listed all the features by pressing the Enter key after each item. However, you feel this content would be easier to read as a bulleted list.How should you achieve this most efficiently?', 'ques_type': 2, 'options': ['Click the bulleted list icon in the Home toolbar &amp;gt Move the items into the new list using the Backspace key.', 'Highlight all the items in the list &amp;gt Click the bulleted list icon in the Home toolbar.', 'Highlight the first item in the list &amp;gt Click the bulleted list icon in the Home toolbar.', 'Click the bulleted list icon in the Home toolbar &amp;gt Highlight all the items in the list.'], 'score': 'Highlight all the items in the list &amp;gt Click the bulleted list icon in the Home toolbar.'}, {'title': 'As a project manager at a marketing agency, you are reviewing a proposal document prepared by a colleague. You have some suggestions for changes, but you do not want to alter the original text directly.Which icon should you select to provide your suggestions?', 'ques_type': 2, 'options': ['New Comment', 'Tracking', 'Hide Ink', 'Editor'], 'score': 'New Comment'}, {'title': 'As a content strategist for an online publication, you are editing a Word document that includes Image A. You decided to remove the background using the Remove Background tool under the Picture Format tab. However, parts of the image also got removed, resulting in Image B. Now you need to redo it correctly.Which additional step should you take this time?', 'ques_type': 2, 'options': ['Increase the transparency of the original image.', 'Mark the correct areas to keep and/or remove while using the Remove Background tool.', 'Increase the contrast of the original image.', 'Select Keep Changes after using the Remove Background tool.'], 'score': 'Mark the correct areas to keep and/or remove while using the Remove Background tool.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a contract manager at a construction firm. You have drafted a contract in Word for a new client, detailing the scope of work and payment terms. You need to save and send the contract to the client in a format that ensures they cannot alter its content before signing.In which format should you save the client\u2019s copy of the contract?",
+        "ques_type": 2,
+        "options": [
+            "Word Document (.docx)",
+            "Plain Text (.txt)",
+            "OpenDocument Text (.odt)",
+            "PDF (.pdf)"
+        ],
+        "score": "PDF (.pdf)"
+    },
+    {
+        "title": "As a technical writer for a software company, you are creating a Word document detailing various features of the software. You have listed all the features by pressing the Enter key after each item. However, you feel this content would be easier to read as a bulleted list.How should you achieve this most efficiently?",
+        "ques_type": 2,
+        "options": [
+            "Click the bulleted list icon in the Home toolbar &amp;gt Move the items into the new list using the Backspace key.",
+            "Highlight all the items in the list &amp;gt Click the bulleted list icon in the Home toolbar.",
+            "Highlight the first item in the list &amp;gt Click the bulleted list icon in the Home toolbar.",
+            "Click the bulleted list icon in the Home toolbar &amp;gt Highlight all the items in the list."
+        ],
+        "score": "Highlight all the items in the list &amp;gt Click the bulleted list icon in the Home toolbar."
+    },
+    {
+        "title": "As a project manager at a marketing agency, you are reviewing a proposal document prepared by a colleague. You have some suggestions for changes, but you do not want to alter the original text directly.Which icon should you select to provide your suggestions?",
+        "ques_type": 2,
+        "options": [
+            "New Comment",
+            "Tracking",
+            "Hide Ink",
+            "Editor"
+        ],
+        "score": "New Comment"
+    },
+    {
+        "title": "As a content strategist for an online publication, you are editing a Word document that includes Image A. You decided to remove the background using the Remove Background tool under the Picture Format tab. However, parts of the image also got removed, resulting in Image B. Now you need to redo it correctly.Which additional step should you take this time?",
+        "ques_type": 2,
+        "options": [
+            "Increase the transparency of the original image.",
+            "Mark the correct areas to keep and/or remove while using the Remove Background tool.",
+            "Increase the contrast of the original image.",
+            "Select Keep Changes after using the Remove Background tool."
+        ],
+        "score": "Mark the correct areas to keep and/or remove while using the Remove Background tool."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
